--- a/Final_Project/Einzelhandel_Template.xlsx
+++ b/Final_Project/Einzelhandel_Template.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Bauhaus_Universitaet_Weimar\Fusionierte_Daten\Master\GIS\Lab_Class\Final_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F974C51C-C14E-47B0-83B3-0F60ED959A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{F974C51C-C14E-47B0-83B3-0F60ED959A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94C526E1-1EF1-44BD-9611-F2CA82FCE1D0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{17915EAC-3ED3-4D27-A58D-BF8EF996CE95}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -52,6 +52,129 @@
   </si>
   <si>
     <t>Stoßzeit</t>
+  </si>
+  <si>
+    <t>Spielwarenfachgeschäft Max Schössler</t>
+  </si>
+  <si>
+    <t>Schützengasse 10, 99423 Weimar</t>
+  </si>
+  <si>
+    <t>4.7/5 (126)</t>
+  </si>
+  <si>
+    <t>Spielzeugladen</t>
+  </si>
+  <si>
+    <t>Mo - Fr 9:30 - 18:00/Sa 9:30 - 15:00</t>
+  </si>
+  <si>
+    <t>Michaels Spielzeugland</t>
+  </si>
+  <si>
+    <t>Friedensstraße 1, 99423 Weimar</t>
+  </si>
+  <si>
+    <t>Mo - Sa 10:00 - 20:00</t>
+  </si>
+  <si>
+    <t>4,2/5 (54)</t>
+  </si>
+  <si>
+    <t>Blue Aqua Zoo</t>
+  </si>
+  <si>
+    <t>Schwanseestraße 1, 99423 Weimar</t>
+  </si>
+  <si>
+    <t>Mo - Fr 10:00 - 17:00/Sa 9:00 - 12:00</t>
+  </si>
+  <si>
+    <t>n.a</t>
+  </si>
+  <si>
+    <t>3,1/5 (27)</t>
+  </si>
+  <si>
+    <t>Tauchgeschäft</t>
+  </si>
+  <si>
+    <t>Musikhaus 19</t>
+  </si>
+  <si>
+    <t>Geleitstraße 19, 99423 Weimar</t>
+  </si>
+  <si>
+    <t>Mo - Fr 11:00 - 18:00/Sa 11:00 - 14:00</t>
+  </si>
+  <si>
+    <t>4,6/5 (18)</t>
+  </si>
+  <si>
+    <t>Musikladen</t>
+  </si>
+  <si>
+    <t>Musikhaus Plickert</t>
+  </si>
+  <si>
+    <t>Jakobstraße 22, 99423 Weimar</t>
+  </si>
+  <si>
+    <t>Mo - Fr 10:00 - 18:00/Sa 10:00 - 14:00</t>
+  </si>
+  <si>
+    <t>4,6/5 (61)</t>
+  </si>
+  <si>
+    <t>Dana Zakowsky</t>
+  </si>
+  <si>
+    <t>Schillerstraße 10, 99423 Weimar</t>
+  </si>
+  <si>
+    <t>Di - Fr 10:00 - 13:00</t>
+  </si>
+  <si>
+    <t>4,3/5 (39)</t>
+  </si>
+  <si>
+    <t>Friedrich-Ebert-Straße 23a, 99423 Weimar</t>
+  </si>
+  <si>
+    <t>Mo - Fr 10:00 - 18:00/Sa 10:00 - 12:00</t>
+  </si>
+  <si>
+    <t>4,4/5 (15)</t>
+  </si>
+  <si>
+    <t>Elektrofachgeschäft</t>
+  </si>
+  <si>
+    <t>Elektro Bachmann</t>
+  </si>
+  <si>
+    <t>Elektrofachhandel Weimar | Kontor365</t>
+  </si>
+  <si>
+    <t>Georg-Haar-Straße 5, 99427 Weimar</t>
+  </si>
+  <si>
+    <t>Mo - Do 09:00 - 17:00/Fr 09:00 - 15:00</t>
+  </si>
+  <si>
+    <t>3.0/5 (2)</t>
+  </si>
+  <si>
+    <t>Elektro-Weise GmbH</t>
+  </si>
+  <si>
+    <t>Carl-con-Ossietzky-Straße 57, 99423 Weimar</t>
+  </si>
+  <si>
+    <t>k.A.</t>
+  </si>
+  <si>
+    <t>5.0/5 (4)</t>
   </si>
 </sst>
 </file>
@@ -93,12 +216,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -413,24 +537,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49121C8-DC0C-4276-B819-DE368CF0D978}">
-  <dimension ref="B2:G2"/>
+  <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.56640625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1"/>
-    <col min="2" max="2" width="36.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="19" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="49.50390625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.66015625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.390625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.96484375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.8203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.56640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -448,6 +572,186 @@
       </c>
       <c r="G2" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Final_Project/Einzelhandel_Template.xlsx
+++ b/Final_Project/Einzelhandel_Template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="143">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -425,6 +425,30 @@
   </si>
   <si>
     <t xml:space="preserve">4.1/5 (99)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stoff-Art</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eisfeld 3, 99423 Weimar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8/5 (46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stoffgeschäft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verfilzt &amp; Zugenäht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jakobstraße 2, 99423 Weimar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mo – Fr 11:00 – 17:00, Sa 11:00 – 15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9/5 (39)</t>
   </si>
 </sst>
 </file>
@@ -532,11 +556,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -559,8 +583,8 @@
   </sheetPr>
   <dimension ref="B2:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1021,7 +1045,7 @@
       <c r="C24" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E24" s="1" t="n">
@@ -1061,7 +1085,7 @@
       <c r="C26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="1" t="s">
         <v>104</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -1101,7 +1125,7 @@
       <c r="C28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -1127,7 +1151,7 @@
       <c r="E29" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="1" t="s">
         <v>118</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -1164,7 +1188,7 @@
       <c r="D31" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E31" s="5" t="n">
+      <c r="E31" s="4" t="n">
         <v>0.625</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -1181,7 +1205,7 @@
       <c r="C32" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E32" s="1" t="n">
@@ -1212,6 +1236,46 @@
       </c>
       <c r="G33" s="1" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Final_Project/Einzelhandel_Template.xlsx
+++ b/Final_Project/Einzelhandel_Template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="222">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -112,21 +112,6 @@
     <t xml:space="preserve">4.6/5 (61)</t>
   </si>
   <si>
-    <t xml:space="preserve">Elektro Bachmann</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friedrich-Ebert-Straße 23a, 99423 Weimar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo - Fr 10:00 - 18:00/Sa 10:00 - 12:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4/5 (15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elektrofachgeschäft</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eckermann Buchhandlung</t>
   </si>
   <si>
@@ -253,258 +238,174 @@
     <t xml:space="preserve">4.3/5 (41)</t>
   </si>
   <si>
-    <t xml:space="preserve">Lebensmittel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nachtsaktiv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erfurter Str. 15, 99423 Weimar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo – Do 19:30 – 2:00, Fr – Sa 19:30 – 3:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8/5 (44)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teeboutique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windischenstraße 23, 99423 Weimar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo- Fr 10:00 – 18:00, Sa 10:00 – 14:00</t>
+    <t xml:space="preserve">Stoff-Art</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eisfeld 3, 99423 Weimar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8/5 (46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stoffgeschäft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verfilzt &amp; Zugenäht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jakobstraße 2, 99423 Weimar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mo – Fr 11:00 – 17:00, Sa 11:00 – 15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9/5 (39)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maschen-Boutique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisztstraße 18, 99423 Weimar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mo-Fr 10:00-18:00, Sa 10:00-12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bekleidung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schneekleidchen &amp; Hosenrot - nachhaltige Damenboutique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windischenstraße 15, 99423 Weimar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die-Fr 11:00-18:00, Sa 10:00-16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9/5 (14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOVEAFAIR Organic Clothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Markstraße 22, 99423 Weimar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mo-Sa 10:00-18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/5 (29)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boutique I-Punkt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herderplatz 9, 99423 Weimar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die-Fr 11:00-18:00, Sa 11:00-16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/5 (4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alte Liebe Vintage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geleitstraße 8, 99423 Weimar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi-Sa 10:00-18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/5 (3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schauschau - the ethical choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teichgasse 4, 99423 Weimar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mo-Fr 12:00-18:00, Sa 10:00-16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9/5 (12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zum Kaiser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5/5 (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schuprofi Weimar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schillerstraße 10, 99423 Weimar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mo-Do 10:00-18:00, Fr-Sa 10:00-19:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6/5 (13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schuhe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No10 - ILONA MANTEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windischenstraße 10, 99423 Weimar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die-Fr 12:00-18:00, Sa 11:00-14:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/5 (5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schuhladen für Damen und Kinder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windischenstraße 19, 99423 Weimar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mo-Fr 10:00-18:00, Sa 10:00-15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9/5 (8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schuh TREFF by Seidenschur GmbH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaufstraße 17, 99423 Weimar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mo-Fr 10:00-19:00, Sa 10:00-16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mode &amp; Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schillerstraße 14, 99423 Weimar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mo-Fr 9:30-19:30, Sa 9:30-18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schmuck &amp; Design Susanne Schmidt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frauenplan 7, 99423 Weimar</t>
   </si>
   <si>
     <t xml:space="preserve">4.9/5 (30)</t>
   </si>
   <si>
-    <t xml:space="preserve">Teehaus Teuner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steubenstraße 12, 99423 Weimar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo – Fr 11:00 – 18:00, Sa 13:00 – 18:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8/5 (23)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panda Panda Asia Shop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goethepl. 5, 99423 Weimar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo – Sa 12:00 – 19:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4/5 (39)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orientalische Spezialitäten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jakobstr. 16, 99423 Weimar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo – Sa 9:00 – 20:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3/5 (29)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bio-Laden Rosmarin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herderplatz 3, 99423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo – Fr 9:00 – 19:00, Sa 9:30 – 16:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1/5 (99)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stoff-Art</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eisfeld 3, 99423 Weimar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8/5 (46)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stoffgeschäft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verfilzt &amp; Zugenäht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jakobstraße 2, 99423 Weimar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo – Fr 11:00 – 17:00, Sa 11:00 – 15:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9/5 (39)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maschen-Boutique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lisztstraße 18, 99423 Weimar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo-Fr 10:00-18:00, Sa 10:00-12:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bekleidung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schneekleidchen &amp; Hosenrot - nachhaltige Damenboutique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windischenstraße 15, 99423 Weimar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die-Fr 11:00-18:00, Sa 10:00-16:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9/5 (14)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOVEAFAIR Organic Clothing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Markstraße 22, 99423 Weimar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo-Sa 10:00-18:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/5 (29)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boutique I-Punkt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herderplatz 9, 99423 Weimar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die-Fr 11:00-18:00, Sa 11:00-16:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/5 (4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brotklappe Cafe &amp; Bäckerei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frauenplan 8, 99423 Weimar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo-So 8:00-18:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6/5 (267)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alte Liebe Vintage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geleitstraße 8, 99423 Weimar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi-Sa 10:00-18:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/5 (3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schauschau - the ethical choice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teichgasse 4, 99423 Weimar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo-Fr 12:00-18:00, Sa 10:00-16:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9/5 (12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zum Kaiser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5/5 (2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schuprofi Weimar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schillerstraße 10, 99423 Weimar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo-Do 10:00-18:00, Fr-Sa 10:00-19:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6/5 (13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schuhe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No10 - ILONA MANTEY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windischenstraße 10, 99423 Weimar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die-Fr 12:00-18:00, Sa 11:00-14:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/5 (5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schuhladen für Damen und Kinder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windischenstraße 19, 99423 Weimar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo-Fr 10:00-18:00, Sa 10:00-15:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9/5 (8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schuh TREFF by Seidenschur GmbH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaufstraße 17, 99423 Weimar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo-Fr 10:00-19:00, Sa 10:00-16:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mode &amp; Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schillerstraße 14, 99423 Weimar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo-Fr 9:30-19:30, Sa 9:30-18:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schmuck &amp; Design Susanne Schmidt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frauenplan 7, 99423 Weimar</t>
-  </si>
-  <si>
     <t xml:space="preserve">Accessoires</t>
   </si>
   <si>
@@ -710,45 +611,6 @@
   </si>
   <si>
     <t xml:space="preserve">4.7/5 (69)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wohneinmal - Cosmopolitan Home &amp; Deco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geleitstraße 3A, 99423 Weimar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die-Fr 11:00-18:00, Sa 11:00-15:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7/5 (24)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Möbel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design We.Love</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schützengasse 6, 99423 Weimar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo-Fr 11:00-18:30, Sa 10:00-18:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8/5 (12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hausgeräte und Küchen Wellhöfer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erfurter Straße 25, 99423 Weimar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo-Fr 10:00-15:00, Sa 10:00-12:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4/5 (8)</t>
   </si>
   <si>
     <t xml:space="preserve">Blumenkörbchen Katrins</t>
@@ -941,10 +803,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:G1048576"/>
+  <dimension ref="B2:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C74" activeCellId="0" sqref="C74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55859375" defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1088,8 +950,8 @@
       <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>18</v>
+      <c r="E8" s="3" t="n">
+        <v>0.625</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>33</v>
@@ -1108,14 +970,14 @@
       <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="3" t="n">
-        <v>0.625</v>
+      <c r="E9" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1129,33 +991,33 @@
         <v>42</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1169,87 +1031,87 @@
         <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="3" t="n">
-        <v>0.5</v>
+      <c r="E16" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>66</v>
@@ -1258,7 +1120,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
         <v>68</v>
       </c>
@@ -1269,1083 +1131,873 @@
         <v>70</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="E19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="E20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="3" t="n">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="E22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="3" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="E23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="3" t="n">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="E24" s="3" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="3" t="n">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="E25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E31" s="3" t="n">
-        <v>0.625</v>
+        <v>124</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E32" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>43</v>
+        <v>131</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>0.458333333333333</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E35" s="3" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="G35" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="E36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="G36" s="1" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="E37" s="3" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E40" s="3" t="n">
-        <v>0.666666666666667</v>
+      <c r="E40" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="E41" s="3" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E41" s="3" t="n">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="G41" s="1" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>171</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E45" s="3" t="n">
-        <v>0.666666666666667</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E49" s="3" t="n">
-        <v>0.583333333333333</v>
+        <v>187</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>43</v>
+        <v>191</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>0.625</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>43</v>
+        <v>196</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E53" s="3" t="n">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="G53" s="1" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="D54" s="1" t="s">
-        <v>208</v>
+        <v>121</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>209</v>
+        <v>38</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>213</v>
+        <v>146</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E58" s="3" t="n">
-        <v>0.625</v>
+        <v>216</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>43</v>
+        <v>220</v>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>0.625</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>234</v>
-      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E70" s="3" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-    </row>
-    <row r="72" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-    </row>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
